--- a/biology/Botanique/Raoulia_eximia/Raoulia_eximia.xlsx
+++ b/biology/Botanique/Raoulia_eximia/Raoulia_eximia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Raoulia eximia est une espèce de plantes à fleurs dicotylédones de la famille des Asteraceae, originaire de Nouvelle-Zélande. Le genre Raoulia est endémique de Nouvelle-Zélande.
-Ce sont des arbustes compacts formant des coussinets pouvant atteindre 60 cm de haut et 1,5 mètre de diamètre, de couleur gris-blanchâtre, qui poussent à l'étage alpin dans  l'est des Alpes du Sud, dans l'île du Sud. Vu de loin, ces plantes font penser à des moutons couchés sur le sol, d'où leur nom vernaculaire de vegetal sheep (mouton végétal)[2].
+Ce sont des arbustes compacts formant des coussinets pouvant atteindre 60 cm de haut et 1,5 mètre de diamètre, de couleur gris-blanchâtre, qui poussent à l'étage alpin dans  l'est des Alpes du Sud, dans l'île du Sud. Vu de loin, ces plantes font penser à des moutons couchés sur le sol, d'où leur nom vernaculaire de vegetal sheep (mouton végétal).
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique,Raoulia, est un hommage à Étienne Fiacre Louis Raoul (1815–1852), chirurgien naval et naturaliste français[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique,Raoulia, est un hommage à Étienne Fiacre Louis Raoul (1815–1852), chirurgien naval et naturaliste français.
 </t>
         </is>
       </c>
@@ -545,14 +559,53 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Synonymes
-Selon The Plant List            (13 avril 2019)[1] :
-Haastia greenii Hook.f.[4]
-Psychrophyton eximium (Hook.f.) Beauverd[4]
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (13 avril 2019) :
+Haastia greenii Hook.f.
+Psychrophyton eximium (Hook.f.) Beauverd
 Psychrophyton eximium Beauverd
-Raoulia eximia var. eximia
-Liste des variétés
-Selon World Register of Marine Species                               (13 avril 2019)[4] :
+Raoulia eximia var. eximia</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Raoulia_eximia</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Raoulia_eximia</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des variétés</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (13 avril 2019) :
 Raoulia eximia var. lata Kirk</t>
         </is>
       </c>
